--- a/revC-fm/docs/mainboard-revC-bom.xlsx
+++ b/revC-fm/docs/mainboard-revC-bom.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjhillis\Documents\LOCAL\Github\mainboard-hardware\revC-fm\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{031B9542-3799-45B5-BDCB-3B46B1CDB384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E824339-B150-4A9F-8E2E-6D0EA957A983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mainboard" sheetId="1" r:id="rId1"/>
+    <sheet name="to-vendor" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="490">
   <si>
     <t>Item</t>
   </si>
@@ -1463,12 +1477,39 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>DNP P2</t>
+  </si>
+  <si>
+    <t>R235</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>C104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R82, R237, R259, R261, </t>
+  </si>
+  <si>
+    <t>R231, R232, R233, R234, R236, R260</t>
+  </si>
+  <si>
+    <t>Q60, Q65</t>
+  </si>
+  <si>
+    <t>R170, R171, R182, R183, R194, R195, R200, R205, R210, R215, R238, R243, R275</t>
+  </si>
+  <si>
+    <t>R230, R271</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2007,7 +2048,22 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -2037,23 +2093,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N121" totalsRowCount="1" headerRowDxfId="4">
-  <autoFilter ref="A1:N120"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N121" totalsRowCount="1" headerRowDxfId="9">
+  <autoFilter ref="A1:N120" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Item" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Qty" totalsRowFunction="sum"/>
-    <tableColumn id="3" name="Reference(s)" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Value" dataDxfId="1"/>
-    <tableColumn id="5" name="LibPart"/>
-    <tableColumn id="6" name="Footprint"/>
-    <tableColumn id="7" name="Datasheet"/>
-    <tableColumn id="8" name="Manufacturer"/>
-    <tableColumn id="9" name="Mfr. Part No" totalsRowFunction="count" dataDxfId="0"/>
-    <tableColumn id="10" name="DNP EM"/>
-    <tableColumn id="11" name="DNP FM"/>
-    <tableColumn id="12" name="Apply Reflow Adhesive"/>
-    <tableColumn id="13" name="Stake FM"/>
-    <tableColumn id="14" name="Note"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qty" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Reference(s)" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Value" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LibPart"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Footprint"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Datasheet"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Manufacturer"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mfr. Part No" totalsRowFunction="count" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="DNP EM"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="DNP FM"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Apply Reflow Adhesive"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Stake FM"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Note"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05FBF13B-10F9-4CDB-A3BF-B53ED2CF6E13}" name="Table13" displayName="Table13" ref="A1:H117" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="A1:H116" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{726F6091-F4CE-41F5-832B-C3E8622C83DE}" name="Item" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{1D6BD48E-1C1C-4CB1-A2CC-E5E17B98DF81}" name="Qty" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{9BB49248-2B7C-46BC-9EB5-620A02560778}" name="Reference(s)" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{532F60B1-15B1-4038-A368-31DFB8750CEB}" name="Value" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5EDD1DE7-2978-4438-8D5B-AB20DC356886}" name="Footprint"/>
+    <tableColumn id="8" xr3:uid="{F63DE197-82A3-4C8A-907A-D98E595EFFA4}" name="Manufacturer"/>
+    <tableColumn id="9" xr3:uid="{C3706837-5526-40CF-ACA9-225FA227CEDB}" name="Mfr. Part No" totalsRowFunction="count" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{DAAAB107-6032-43E1-867F-4713A43187A9}" name="DNP"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2355,10 +2428,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
@@ -5817,4 +5890,2741 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1834FA29-5094-4790-95B6-B9A9441DBD0F}">
+  <dimension ref="A1:H117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5031821852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="1">
+        <v>74404032010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="1">
+        <v>744316150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="1">
+        <v>744316330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>149</v>
+      </c>
+      <c r="F45" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>66</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>30</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" t="s">
+        <v>184</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>35</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H52" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53" s="1">
+        <v>330</v>
+      </c>
+      <c r="E53" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E57" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" t="s">
+        <v>208</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D59" s="1">
+        <v>499</v>
+      </c>
+      <c r="E59" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E61" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" t="s">
+        <v>208</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>26</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" t="s">
+        <v>184</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H63" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" t="s">
+        <v>184</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>26</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" t="s">
+        <v>184</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H68" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" t="s">
+        <v>184</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" t="s">
+        <v>184</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" t="s">
+        <v>184</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" t="s">
+        <v>184</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" t="s">
+        <v>183</v>
+      </c>
+      <c r="F73" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F75" t="s">
+        <v>184</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E76" t="s">
+        <v>187</v>
+      </c>
+      <c r="F76" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" t="s">
+        <v>249</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" t="s">
+        <v>183</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79" t="s">
+        <v>249</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E80" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" t="s">
+        <v>184</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E81" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E82" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D84" s="1">
+        <v>680</v>
+      </c>
+      <c r="E84" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" t="s">
+        <v>184</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" t="s">
+        <v>184</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" t="s">
+        <v>183</v>
+      </c>
+      <c r="F86" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E87" t="s">
+        <v>183</v>
+      </c>
+      <c r="F87" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" t="s">
+        <v>184</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D90" s="1">
+        <v>220</v>
+      </c>
+      <c r="E90" t="s">
+        <v>183</v>
+      </c>
+      <c r="F90" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" t="s">
+        <v>277</v>
+      </c>
+      <c r="F91" t="s">
+        <v>184</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E92" t="s">
+        <v>282</v>
+      </c>
+      <c r="F92" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" t="s">
+        <v>285</v>
+      </c>
+      <c r="F93" t="s">
+        <v>286</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E94" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" t="s">
+        <v>188</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E95" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" t="s">
+        <v>295</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E96" t="s">
+        <v>299</v>
+      </c>
+      <c r="F96" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E97" t="s">
+        <v>303</v>
+      </c>
+      <c r="F97" t="s">
+        <v>304</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E98" t="s">
+        <v>308</v>
+      </c>
+      <c r="F98" t="s">
+        <v>310</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" t="s">
+        <v>314</v>
+      </c>
+      <c r="F99" t="s">
+        <v>310</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E100" t="s">
+        <v>318</v>
+      </c>
+      <c r="F100" t="s">
+        <v>319</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" t="s">
+        <v>327</v>
+      </c>
+      <c r="F101" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E102" t="s">
+        <v>331</v>
+      </c>
+      <c r="F102" t="s">
+        <v>295</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E103" t="s">
+        <v>179</v>
+      </c>
+      <c r="F103" t="s">
+        <v>71</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E104" t="s">
+        <v>338</v>
+      </c>
+      <c r="F104" t="s">
+        <v>71</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E105" t="s">
+        <v>342</v>
+      </c>
+      <c r="F105" t="s">
+        <v>71</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E106" t="s">
+        <v>345</v>
+      </c>
+      <c r="F106" t="s">
+        <v>346</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E107" t="s">
+        <v>350</v>
+      </c>
+      <c r="F107" t="s">
+        <v>71</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E108" t="s">
+        <v>362</v>
+      </c>
+      <c r="F108" t="s">
+        <v>363</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E109" t="s">
+        <v>294</v>
+      </c>
+      <c r="F109" t="s">
+        <v>295</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E110" t="s">
+        <v>370</v>
+      </c>
+      <c r="F110" t="s">
+        <v>346</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E111" t="s">
+        <v>370</v>
+      </c>
+      <c r="F111" t="s">
+        <v>346</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E112" t="s">
+        <v>378</v>
+      </c>
+      <c r="F112" t="s">
+        <v>319</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E113" t="s">
+        <v>383</v>
+      </c>
+      <c r="F113" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E114" t="s">
+        <v>388</v>
+      </c>
+      <c r="F114" t="s">
+        <v>346</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E115" t="s">
+        <v>145</v>
+      </c>
+      <c r="F115" t="s">
+        <v>71</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E116" t="s">
+        <v>396</v>
+      </c>
+      <c r="F116" t="s">
+        <v>398</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>475</v>
+      </c>
+      <c r="B117">
+        <f>SUBTOTAL(109,Table13[Qty])</f>
+        <v>574</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117"/>
+      <c r="G117">
+        <f>SUBTOTAL(103,Table13[Mfr. Part No])</f>
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>